--- a/src/sample/pr_m_z_k.xlsx
+++ b/src/sample/pr_m_z_k.xlsx
@@ -409,7 +409,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,62 +457,65 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -564,7 +567,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D781758F-9518-4788-8D98-D46BD88FAF58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D781758F-9518-4788-8D98-D46BD88FAF58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -894,8 +897,8 @@
   </sheetPr>
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -916,64 +919,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:18" ht="92.25" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:18" ht="45" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="16"/>
       <c r="D5" s="18" t="s">
         <v>13</v>
@@ -983,72 +986,70 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:18" ht="45" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="16">
-        <v>2022</v>
-      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="1:18" ht="45" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:18" ht="50.25" customHeight="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:18" ht="89.25" customHeight="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:18" ht="9.75" customHeight="1">
       <c r="B10" s="1"/>
@@ -1063,54 +1064,54 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="88.5" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="34" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="40.5" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="35"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="29"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="26"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1625,24 +1626,24 @@
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:12" ht="28.2">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22" t="s">
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="22"/>
+      <c r="F45" s="19"/>
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" ht="28.2">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="23"/>
+      <c r="F46" s="20"/>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" ht="28.2">
@@ -1650,19 +1651,19 @@
         <v>7</v>
       </c>
       <c r="C47" s="8"/>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="22"/>
+      <c r="F47" s="19"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="28.2">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="23"/>
+      <c r="F48" s="20"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="12:12">
@@ -1742,11 +1743,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="24">
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E46:F46"/>
@@ -1760,12 +1762,11 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A1:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="32" orientation="portrait" r:id="rId1"/>
